--- a/Proyecto/Modulo 5/M2/ModelMetrics_d2v.xlsx
+++ b/Proyecto/Modulo 5/M2/ModelMetrics_d2v.xlsx
@@ -420,16 +420,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.66564</v>
+        <v>0.66696</v>
       </c>
       <c r="C2">
-        <v>0.68389</v>
+        <v>0.68021</v>
       </c>
       <c r="D2">
-        <v>0.68345</v>
+        <v>0.67845</v>
       </c>
       <c r="E2">
-        <v>0.69214</v>
+        <v>0.68846</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,16 +437,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.69921</v>
+        <v>0.70135</v>
       </c>
       <c r="C3">
-        <v>0.69728</v>
+        <v>0.69578</v>
       </c>
       <c r="D3">
-        <v>0.70317</v>
+        <v>0.69658</v>
       </c>
       <c r="E3">
-        <v>0.70488</v>
+        <v>0.70104</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,16 +454,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.7699</v>
+        <v>0.76792</v>
       </c>
       <c r="C4">
-        <v>0.82946</v>
+        <v>0.82304</v>
       </c>
       <c r="D4">
-        <v>0.81092</v>
+        <v>0.81537</v>
       </c>
       <c r="E4">
-        <v>0.83119</v>
+        <v>0.83169</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,16 +471,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.6409568368712466</v>
+        <v>0.6430636176324778</v>
       </c>
       <c r="C5">
-        <v>0.6494356236132257</v>
+        <v>0.6464046567172347</v>
       </c>
       <c r="D5">
-        <v>0.6532771885156101</v>
+        <v>0.6460332901422425</v>
       </c>
       <c r="E5">
-        <v>0.6592227439795592</v>
+        <v>0.6545536598598996</v>
       </c>
     </row>
   </sheetData>
